--- a/data/xlsx/ETH.xlsx
+++ b/data/xlsx/ETH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2134"/>
+  <dimension ref="A1:B2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21775,6 +21775,46 @@
         <v>1737.11</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="B2135" t="n">
+        <v>1791.99</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>21-06-2023</t>
+        </is>
+      </c>
+      <c r="B2136" t="n">
+        <v>1889.11</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>22-06-2023</t>
+        </is>
+      </c>
+      <c r="B2137" t="n">
+        <v>1872.01</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="B2138" t="n">
+        <v>1892.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
